--- a/public/excel/class.xlsx
+++ b/public/excel/class.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>5eaa76841b6b729f72468829</v>
+        <v>5eb5138d9063e7055419df30</v>
       </c>
       <c r="B2">
         <v>100001</v>
@@ -416,160 +416,58 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5eaa76841b6b729f7246882a</v>
+        <v>5eb513999063e7055419df31</v>
       </c>
       <c r="B3">
-        <v>100008</v>
+        <v>100002</v>
       </c>
       <c r="C3" t="str">
-        <v>吴甜心</v>
+        <v>郭全龙</v>
       </c>
       <c r="D3" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>5eaa76841b6b729f7246882b</v>
+        <v>5eb513a79063e7055419df32</v>
       </c>
       <c r="B4">
-        <v>100006</v>
+        <v>100003</v>
       </c>
       <c r="C4" t="str">
-        <v>景一泽</v>
+        <v>赵画村</v>
       </c>
       <c r="D4" t="str">
         <v>男</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5eaa76841b6b729f7246882c</v>
+        <v>5eb6145267964ea4082f7409</v>
       </c>
       <c r="B5">
         <v>100004</v>
       </c>
       <c r="C5" t="str">
-        <v>柴浩辉</v>
+        <v>赵丽颖</v>
       </c>
       <c r="D5" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5eaa76841b6b729f7246882d</v>
-      </c>
-      <c r="B6">
-        <v>100007</v>
-      </c>
-      <c r="C6" t="str">
-        <v>张磊</v>
-      </c>
-      <c r="D6" t="str">
-        <v>男</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5eaa76841b6b729f7246882e</v>
-      </c>
-      <c r="B7">
-        <v>100002</v>
-      </c>
-      <c r="C7" t="str">
-        <v>王林欢</v>
-      </c>
-      <c r="D7" t="str">
-        <v>男</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>5eaa76841b6b729f7246882f</v>
-      </c>
-      <c r="B8">
-        <v>100003</v>
-      </c>
-      <c r="C8" t="str">
-        <v>刘宇青</v>
-      </c>
-      <c r="D8" t="str">
-        <v>男</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>5eaa76841b6b729f72468830</v>
-      </c>
-      <c r="B9">
-        <v>100005</v>
-      </c>
-      <c r="C9" t="str">
-        <v>郭扬帆</v>
-      </c>
-      <c r="D9" t="str">
-        <v>男</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>5eaa76841b6b729f72468831</v>
-      </c>
-      <c r="B10">
-        <v>100009</v>
-      </c>
-      <c r="C10" t="str">
-        <v>杨宏斌</v>
-      </c>
-      <c r="D10" t="str">
-        <v>男</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>5eaa76841b6b729f72468832</v>
-      </c>
-      <c r="B11">
-        <v>100010</v>
-      </c>
-      <c r="C11" t="str">
-        <v>梁梦洋</v>
-      </c>
-      <c r="D11" t="str">
-        <v>女</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>